--- a/RBI_RDG_Stats.xlsx
+++ b/RBI_RDG_Stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -106,6 +106,12 @@
     <t>27 Mar, 2023</t>
   </si>
   <si>
+    <t>03 Apr, 2023</t>
+  </si>
+  <si>
+    <t>10 Apr, 2023</t>
+  </si>
+  <si>
     <t>56,714</t>
   </si>
   <si>
@@ -179,6 +185,12 @@
   </si>
   <si>
     <t>78,149</t>
+  </si>
+  <si>
+    <t>79,266</t>
+  </si>
+  <si>
+    <t>80,167</t>
   </si>
 </sst>
 </file>
@@ -536,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,7 +576,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>301.12</v>
@@ -581,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>344.64</v>
@@ -598,7 +610,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>378.96</v>
@@ -615,7 +627,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>412.01</v>
@@ -632,7 +644,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>452.37</v>
@@ -649,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>485.7</v>
@@ -666,7 +678,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>527.6</v>
@@ -683,7 +695,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>559.01</v>
@@ -700,7 +712,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>588.5700000000001</v>
@@ -717,7 +729,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>622.08</v>
@@ -734,7 +746,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>658.9299999999999</v>
@@ -751,7 +763,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>688.9299999999999</v>
@@ -768,7 +780,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>717</v>
@@ -785,7 +797,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>742.3200000000001</v>
@@ -802,7 +814,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>769.4400000000001</v>
@@ -819,7 +831,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>796.25</v>
@@ -836,7 +848,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>819.14</v>
@@ -853,7 +865,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>840.47</v>
@@ -870,7 +882,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>871.52</v>
@@ -887,7 +899,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>900.95</v>
@@ -904,7 +916,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>935.47</v>
@@ -921,7 +933,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>974.65</v>
@@ -938,7 +950,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>1006.82</v>
@@ -955,7 +967,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>1054.15</v>
@@ -972,7 +984,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>1094.41</v>
@@ -982,6 +994,40 @@
       </c>
       <c r="E26">
         <v>382.11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27">
+        <v>1113.85</v>
+      </c>
+      <c r="D27">
+        <v>699.96</v>
+      </c>
+      <c r="E27">
+        <v>382.12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28">
+        <v>1145.48</v>
+      </c>
+      <c r="D28">
+        <v>709.23</v>
+      </c>
+      <c r="E28">
+        <v>382.29</v>
       </c>
     </row>
   </sheetData>

--- a/RBI_RDG_Stats.xlsx
+++ b/RBI_RDG_Stats.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+  <si>
+    <t>Date Code</t>
+  </si>
   <si>
     <t>Date</t>
   </si>
@@ -112,6 +115,12 @@
     <t>10 Apr, 2023</t>
   </si>
   <si>
+    <t>17 Apr, 2023</t>
+  </si>
+  <si>
+    <t>25 Apr, 2023</t>
+  </si>
+  <si>
     <t>56,714</t>
   </si>
   <si>
@@ -191,6 +200,12 @@
   </si>
   <si>
     <t>80,167</t>
+  </si>
+  <si>
+    <t>81,049</t>
+  </si>
+  <si>
+    <t>81,699</t>
   </si>
 </sst>
 </file>
@@ -548,13 +563,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,464 +585,588 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>10102022</v>
+      </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2">
+        <v>301.12</v>
+      </c>
+      <c r="E2">
+        <v>270.27</v>
+      </c>
+      <c r="F2">
+        <v>211.84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>17102022</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <v>344.64</v>
+      </c>
+      <c r="E3">
+        <v>310.41</v>
+      </c>
+      <c r="F3">
+        <v>211.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>25102022</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4">
+        <v>378.96</v>
+      </c>
+      <c r="E4">
+        <v>336.68</v>
+      </c>
+      <c r="F4">
+        <v>212.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>31102022</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <v>412.01</v>
+      </c>
+      <c r="E5">
+        <v>362.8</v>
+      </c>
+      <c r="F5">
+        <v>212.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>7112022</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6">
+        <v>452.37</v>
+      </c>
+      <c r="E6">
+        <v>395.26</v>
+      </c>
+      <c r="F6">
+        <v>212.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>14112022</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>485.7</v>
+      </c>
+      <c r="E7">
+        <v>420.97</v>
+      </c>
+      <c r="F7">
+        <v>212.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>21112022</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>527.6</v>
+      </c>
+      <c r="E8">
+        <v>460.47</v>
+      </c>
+      <c r="F8">
+        <v>212.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>28112022</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9">
+        <v>559.01</v>
+      </c>
+      <c r="E9">
+        <v>479.43</v>
+      </c>
+      <c r="F9">
+        <v>212.63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>5122022</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10">
+        <v>588.5700000000001</v>
+      </c>
+      <c r="E10">
+        <v>501.33</v>
+      </c>
+      <c r="F10">
+        <v>213.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>12122022</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11">
+        <v>622.08</v>
+      </c>
+      <c r="E11">
+        <v>523.8099999999999</v>
+      </c>
+      <c r="F11">
+        <v>213.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>19122022</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <v>658.9299999999999</v>
+      </c>
+      <c r="E12">
+        <v>548.76</v>
+      </c>
+      <c r="F12">
+        <v>213.26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>26122022</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13">
+        <v>688.9299999999999</v>
+      </c>
+      <c r="E13">
+        <v>565.3099999999999</v>
+      </c>
+      <c r="F13">
+        <v>213.31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>2012023</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14">
+        <v>717</v>
+      </c>
+      <c r="E14">
+        <v>581.28</v>
+      </c>
+      <c r="F14">
+        <v>249.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>9012023</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15">
+        <v>742.3200000000001</v>
+      </c>
+      <c r="E15">
+        <v>593.4</v>
+      </c>
+      <c r="F15">
+        <v>249.34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>16012023</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16">
+        <v>769.4400000000001</v>
+      </c>
+      <c r="E16">
+        <v>598.75</v>
+      </c>
+      <c r="F16">
+        <v>249.32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>23012023</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>796.25</v>
+      </c>
+      <c r="E17">
+        <v>605.65</v>
+      </c>
+      <c r="F17">
+        <v>249.32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>30012023</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18">
+        <v>819.14</v>
+      </c>
+      <c r="E18">
+        <v>613.0700000000001</v>
+      </c>
+      <c r="F18">
+        <v>249.33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>6022023</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19">
+        <v>840.47</v>
+      </c>
+      <c r="E19">
+        <v>609.86</v>
+      </c>
+      <c r="F19">
+        <v>249.33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>13022023</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20">
+        <v>871.52</v>
+      </c>
+      <c r="E20">
+        <v>623.16</v>
+      </c>
+      <c r="F20">
+        <v>250.81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>20022023</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21">
+        <v>900.95</v>
+      </c>
+      <c r="E21">
+        <v>631.5599999999999</v>
+      </c>
+      <c r="F21">
+        <v>339.58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>27022023</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22">
+        <v>935.47</v>
+      </c>
+      <c r="E22">
+        <v>643.41</v>
+      </c>
+      <c r="F22">
+        <v>339.58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>6032023</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23">
+        <v>974.65</v>
+      </c>
+      <c r="E23">
+        <v>660.01</v>
+      </c>
+      <c r="F23">
+        <v>339.58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>13032023</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24">
+        <v>1006.82</v>
+      </c>
+      <c r="E24">
+        <v>667.1799999999999</v>
+      </c>
+      <c r="F24">
+        <v>339.42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>20032023</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25">
+        <v>1054.15</v>
+      </c>
+      <c r="E25">
+        <v>687.58</v>
+      </c>
+      <c r="F25">
+        <v>382.13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>27032023</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26">
+        <v>1094.41</v>
+      </c>
+      <c r="E26">
+        <v>704.92</v>
+      </c>
+      <c r="F26">
+        <v>382.11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>3042023</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27">
+        <v>1113.85</v>
+      </c>
+      <c r="E27">
+        <v>699.96</v>
+      </c>
+      <c r="F27">
+        <v>382.12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>10042023</v>
+      </c>
+      <c r="B28" t="s">
         <v>32</v>
       </c>
-      <c r="C2">
-        <v>301.12</v>
-      </c>
-      <c r="D2">
-        <v>270.27</v>
-      </c>
-      <c r="E2">
-        <v>211.84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28">
+        <v>1145.48</v>
+      </c>
+      <c r="E28">
+        <v>709.23</v>
+      </c>
+      <c r="F28">
+        <v>382.29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>17042023</v>
+      </c>
+      <c r="B29" t="s">
         <v>33</v>
       </c>
-      <c r="C3">
-        <v>344.64</v>
-      </c>
-      <c r="D3">
-        <v>310.41</v>
-      </c>
-      <c r="E3">
-        <v>211.83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29">
+        <v>1191.85</v>
+      </c>
+      <c r="E29">
+        <v>727.8099999999999</v>
+      </c>
+      <c r="F29">
+        <v>383.77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>25042023</v>
+      </c>
+      <c r="B30" t="s">
         <v>34</v>
       </c>
-      <c r="C4">
-        <v>378.96</v>
-      </c>
-      <c r="D4">
-        <v>336.68</v>
-      </c>
-      <c r="E4">
-        <v>212.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
-        <v>412.01</v>
-      </c>
-      <c r="D5">
-        <v>362.8</v>
-      </c>
-      <c r="E5">
-        <v>212.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6">
-        <v>452.37</v>
-      </c>
-      <c r="D6">
-        <v>395.26</v>
-      </c>
-      <c r="E6">
-        <v>212.32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7">
-        <v>485.7</v>
-      </c>
-      <c r="D7">
-        <v>420.97</v>
-      </c>
-      <c r="E7">
-        <v>212.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8">
-        <v>527.6</v>
-      </c>
-      <c r="D8">
-        <v>460.47</v>
-      </c>
-      <c r="E8">
-        <v>212.22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9">
-        <v>559.01</v>
-      </c>
-      <c r="D9">
-        <v>479.43</v>
-      </c>
-      <c r="E9">
-        <v>212.63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
-        <v>588.5700000000001</v>
-      </c>
-      <c r="D10">
-        <v>501.33</v>
-      </c>
-      <c r="E10">
-        <v>213.19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11">
-        <v>622.08</v>
-      </c>
-      <c r="D11">
-        <v>523.8099999999999</v>
-      </c>
-      <c r="E11">
-        <v>213.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12">
-        <v>658.9299999999999</v>
-      </c>
-      <c r="D12">
-        <v>548.76</v>
-      </c>
-      <c r="E12">
-        <v>213.26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13">
-        <v>688.9299999999999</v>
-      </c>
-      <c r="D13">
-        <v>565.3099999999999</v>
-      </c>
-      <c r="E13">
-        <v>213.31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14">
-        <v>717</v>
-      </c>
-      <c r="D14">
-        <v>581.28</v>
-      </c>
-      <c r="E14">
-        <v>249.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15">
-        <v>742.3200000000001</v>
-      </c>
-      <c r="D15">
-        <v>593.4</v>
-      </c>
-      <c r="E15">
-        <v>249.34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16">
-        <v>769.4400000000001</v>
-      </c>
-      <c r="D16">
-        <v>598.75</v>
-      </c>
-      <c r="E16">
-        <v>249.32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17">
-        <v>796.25</v>
-      </c>
-      <c r="D17">
-        <v>605.65</v>
-      </c>
-      <c r="E17">
-        <v>249.32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18">
-        <v>819.14</v>
-      </c>
-      <c r="D18">
-        <v>613.0700000000001</v>
-      </c>
-      <c r="E18">
-        <v>249.33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19">
-        <v>840.47</v>
-      </c>
-      <c r="D19">
-        <v>609.86</v>
-      </c>
-      <c r="E19">
-        <v>249.33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20">
-        <v>871.52</v>
-      </c>
-      <c r="D20">
-        <v>623.16</v>
-      </c>
-      <c r="E20">
-        <v>250.81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21">
-        <v>900.95</v>
-      </c>
-      <c r="D21">
-        <v>631.5599999999999</v>
-      </c>
-      <c r="E21">
-        <v>339.58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22">
-        <v>935.47</v>
-      </c>
-      <c r="D22">
-        <v>643.41</v>
-      </c>
-      <c r="E22">
-        <v>339.58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23">
-        <v>974.65</v>
-      </c>
-      <c r="D23">
-        <v>660.01</v>
-      </c>
-      <c r="E23">
-        <v>339.58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24">
-        <v>1006.82</v>
-      </c>
-      <c r="D24">
-        <v>667.1799999999999</v>
-      </c>
-      <c r="E24">
-        <v>339.42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25">
-        <v>1054.15</v>
-      </c>
-      <c r="D25">
-        <v>687.58</v>
-      </c>
-      <c r="E25">
-        <v>382.13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26">
-        <v>1094.41</v>
-      </c>
-      <c r="D26">
-        <v>704.92</v>
-      </c>
-      <c r="E26">
-        <v>382.11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27">
-        <v>1113.85</v>
-      </c>
-      <c r="D27">
-        <v>699.96</v>
-      </c>
-      <c r="E27">
-        <v>382.12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28">
-        <v>1145.48</v>
-      </c>
-      <c r="D28">
-        <v>709.23</v>
-      </c>
-      <c r="E28">
-        <v>382.29</v>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30">
+        <v>1227.97</v>
+      </c>
+      <c r="E30">
+        <v>740.02</v>
+      </c>
+      <c r="F30">
+        <v>383.84</v>
       </c>
     </row>
   </sheetData>

--- a/RBI_RDG_Stats.xlsx
+++ b/RBI_RDG_Stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Date Code</t>
   </si>
@@ -121,6 +121,30 @@
     <t>25 Apr, 2023</t>
   </si>
   <si>
+    <t>01 May, 2023</t>
+  </si>
+  <si>
+    <t>08 May, 2023</t>
+  </si>
+  <si>
+    <t>15 May, 2023</t>
+  </si>
+  <si>
+    <t>22 May, 2023</t>
+  </si>
+  <si>
+    <t>29 May, 2023</t>
+  </si>
+  <si>
+    <t>05 Jun, 2023</t>
+  </si>
+  <si>
+    <t>12 Jun, 2023</t>
+  </si>
+  <si>
+    <t>19 Jun, 2023</t>
+  </si>
+  <si>
     <t>56,714</t>
   </si>
   <si>
@@ -206,6 +230,30 @@
   </si>
   <si>
     <t>81,699</t>
+  </si>
+  <si>
+    <t>82,716</t>
+  </si>
+  <si>
+    <t>82,894</t>
+  </si>
+  <si>
+    <t>83,573</t>
+  </si>
+  <si>
+    <t>84,158</t>
+  </si>
+  <si>
+    <t>84,641</t>
+  </si>
+  <si>
+    <t>85,264</t>
+  </si>
+  <si>
+    <t>85,955</t>
+  </si>
+  <si>
+    <t>86,503</t>
   </si>
 </sst>
 </file>
@@ -563,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,7 +645,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>301.12</v>
@@ -617,7 +665,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D3">
         <v>344.64</v>
@@ -637,7 +685,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>378.96</v>
@@ -657,7 +705,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D5">
         <v>412.01</v>
@@ -677,7 +725,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>452.37</v>
@@ -697,7 +745,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>485.7</v>
@@ -717,7 +765,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D8">
         <v>527.6</v>
@@ -737,7 +785,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>559.01</v>
@@ -757,7 +805,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D10">
         <v>588.5700000000001</v>
@@ -777,7 +825,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D11">
         <v>622.08</v>
@@ -797,7 +845,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D12">
         <v>658.9299999999999</v>
@@ -817,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D13">
         <v>688.9299999999999</v>
@@ -837,7 +885,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D14">
         <v>717</v>
@@ -857,7 +905,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D15">
         <v>742.3200000000001</v>
@@ -877,7 +925,7 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D16">
         <v>769.4400000000001</v>
@@ -897,7 +945,7 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D17">
         <v>796.25</v>
@@ -917,7 +965,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D18">
         <v>819.14</v>
@@ -937,7 +985,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D19">
         <v>840.47</v>
@@ -957,7 +1005,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D20">
         <v>871.52</v>
@@ -977,7 +1025,7 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D21">
         <v>900.95</v>
@@ -997,7 +1045,7 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D22">
         <v>935.47</v>
@@ -1017,7 +1065,7 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D23">
         <v>974.65</v>
@@ -1037,7 +1085,7 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D24">
         <v>1006.82</v>
@@ -1057,7 +1105,7 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D25">
         <v>1054.15</v>
@@ -1077,7 +1125,7 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D26">
         <v>1094.41</v>
@@ -1097,7 +1145,7 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D27">
         <v>1113.85</v>
@@ -1117,7 +1165,7 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D28">
         <v>1145.48</v>
@@ -1137,7 +1185,7 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D29">
         <v>1191.85</v>
@@ -1157,7 +1205,7 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D30">
         <v>1227.97</v>
@@ -1167,6 +1215,166 @@
       </c>
       <c r="F30">
         <v>383.84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>1052023</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31">
+        <v>1255.92</v>
+      </c>
+      <c r="E31">
+        <v>743.92</v>
+      </c>
+      <c r="F31">
+        <v>383.78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>8052023</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32">
+        <v>1288.41</v>
+      </c>
+      <c r="E32">
+        <v>753.41</v>
+      </c>
+      <c r="F32">
+        <v>383.79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>15052023</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33">
+        <v>1322.11</v>
+      </c>
+      <c r="E33">
+        <v>760.5700000000001</v>
+      </c>
+      <c r="F33">
+        <v>383.81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>22052023</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34">
+        <v>1353.87</v>
+      </c>
+      <c r="E34">
+        <v>767.4299999999999</v>
+      </c>
+      <c r="F34">
+        <v>385.29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>29052023</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35">
+        <v>1383.55</v>
+      </c>
+      <c r="E35">
+        <v>771.8200000000001</v>
+      </c>
+      <c r="F35">
+        <v>384.53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>5062023</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36">
+        <v>1409.18</v>
+      </c>
+      <c r="E36">
+        <v>771.77</v>
+      </c>
+      <c r="F36">
+        <v>384.57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>12062023</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37">
+        <v>1436.15</v>
+      </c>
+      <c r="E37">
+        <v>773.64</v>
+      </c>
+      <c r="F37">
+        <v>384.56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>19062023</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38">
+        <v>1461.66</v>
+      </c>
+      <c r="E38">
+        <v>767.9299999999999</v>
+      </c>
+      <c r="F38">
+        <v>385.84</v>
       </c>
     </row>
   </sheetData>

--- a/RBI_RDG_Stats.xlsx
+++ b/RBI_RDG_Stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="120">
   <si>
     <t>Date Code</t>
   </si>
@@ -172,6 +172,48 @@
     <t>21 Aug, 2023</t>
   </si>
   <si>
+    <t>28 Aug, 2023</t>
+  </si>
+  <si>
+    <t>04 Sep, 2023</t>
+  </si>
+  <si>
+    <t>11 Sep, 2023</t>
+  </si>
+  <si>
+    <t>18 Sep, 2023</t>
+  </si>
+  <si>
+    <t>25 Sep, 2023</t>
+  </si>
+  <si>
+    <t>02 Oct, 2023</t>
+  </si>
+  <si>
+    <t>09 Oct, 2023</t>
+  </si>
+  <si>
+    <t>16 Oct, 2023</t>
+  </si>
+  <si>
+    <t>23 Oct, 2023</t>
+  </si>
+  <si>
+    <t>30 Oct, 2023</t>
+  </si>
+  <si>
+    <t>06 Nov, 2023</t>
+  </si>
+  <si>
+    <t>13 Nov, 2023</t>
+  </si>
+  <si>
+    <t>20 Nov, 2023</t>
+  </si>
+  <si>
+    <t>27 Nov, 2023</t>
+  </si>
+  <si>
     <t>56,714</t>
   </si>
   <si>
@@ -308,6 +350,30 @@
   </si>
   <si>
     <t>92,789</t>
+  </si>
+  <si>
+    <t>Opened</t>
+  </si>
+  <si>
+    <t>94,167</t>
+  </si>
+  <si>
+    <t>95,100</t>
+  </si>
+  <si>
+    <t>96,585</t>
+  </si>
+  <si>
+    <t>98,041</t>
+  </si>
+  <si>
+    <t>98,859</t>
+  </si>
+  <si>
+    <t>99,865</t>
+  </si>
+  <si>
+    <t>100,633</t>
   </si>
 </sst>
 </file>
@@ -665,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,7 +765,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D2">
         <v>301.12</v>
@@ -719,7 +785,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D3">
         <v>344.64</v>
@@ -739,7 +805,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D4">
         <v>378.96</v>
@@ -759,7 +825,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D5">
         <v>412.01</v>
@@ -779,7 +845,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D6">
         <v>452.37</v>
@@ -799,7 +865,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D7">
         <v>485.7</v>
@@ -819,7 +885,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D8">
         <v>527.6</v>
@@ -839,7 +905,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D9">
         <v>559.01</v>
@@ -859,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D10">
         <v>588.5700000000001</v>
@@ -879,7 +945,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D11">
         <v>622.08</v>
@@ -899,7 +965,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D12">
         <v>658.9299999999999</v>
@@ -919,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D13">
         <v>688.9299999999999</v>
@@ -939,7 +1005,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D14">
         <v>717</v>
@@ -959,7 +1025,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D15">
         <v>742.3200000000001</v>
@@ -979,7 +1045,7 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D16">
         <v>769.4400000000001</v>
@@ -999,7 +1065,7 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D17">
         <v>796.25</v>
@@ -1019,7 +1085,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D18">
         <v>819.14</v>
@@ -1039,7 +1105,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D19">
         <v>840.47</v>
@@ -1059,7 +1125,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D20">
         <v>871.52</v>
@@ -1079,7 +1145,7 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D21">
         <v>900.95</v>
@@ -1099,7 +1165,7 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D22">
         <v>935.47</v>
@@ -1119,7 +1185,7 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D23">
         <v>974.65</v>
@@ -1139,7 +1205,7 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D24">
         <v>1006.82</v>
@@ -1159,7 +1225,7 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D25">
         <v>1054.15</v>
@@ -1179,7 +1245,7 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D26">
         <v>1094.41</v>
@@ -1199,7 +1265,7 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D27">
         <v>1113.85</v>
@@ -1219,7 +1285,7 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D28">
         <v>1145.48</v>
@@ -1239,7 +1305,7 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D29">
         <v>1191.85</v>
@@ -1259,7 +1325,7 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D30">
         <v>1227.97</v>
@@ -1279,7 +1345,7 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D31">
         <v>1255.92</v>
@@ -1299,7 +1365,7 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D32">
         <v>1288.41</v>
@@ -1319,7 +1385,7 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D33">
         <v>1322.11</v>
@@ -1339,7 +1405,7 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D34">
         <v>1353.87</v>
@@ -1359,7 +1425,7 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D35">
         <v>1383.55</v>
@@ -1379,7 +1445,7 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D36">
         <v>1409.18</v>
@@ -1399,7 +1465,7 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D37">
         <v>1436.15</v>
@@ -1419,7 +1485,7 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D38">
         <v>1461.66</v>
@@ -1439,7 +1505,7 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D39">
         <v>1487.98</v>
@@ -1459,7 +1525,7 @@
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D40">
         <v>1512.2</v>
@@ -1479,7 +1545,7 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D41">
         <v>1538.27</v>
@@ -1499,7 +1565,7 @@
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D42">
         <v>1565.99</v>
@@ -1519,7 +1585,7 @@
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D43">
         <v>1596.86</v>
@@ -1539,7 +1605,7 @@
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D44">
         <v>1623.31</v>
@@ -1559,7 +1625,7 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D45">
         <v>1649.02</v>
@@ -1579,7 +1645,7 @@
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D46">
         <v>1679.37</v>
@@ -1599,7 +1665,7 @@
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D47">
         <v>1702.61</v>
@@ -1609,6 +1675,286 @@
       </c>
       <c r="F47">
         <v>453.67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>28082023</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48">
+        <v>1742.08</v>
+      </c>
+      <c r="E48">
+        <v>759.97</v>
+      </c>
+      <c r="F48">
+        <v>453.81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>4092023</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49">
+        <v>1774.8</v>
+      </c>
+      <c r="E49">
+        <v>760.46</v>
+      </c>
+      <c r="F49">
+        <v>453.78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>11092023</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50">
+        <v>1807.65</v>
+      </c>
+      <c r="E50">
+        <v>760.1900000000001</v>
+      </c>
+      <c r="F50">
+        <v>453.78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>18092023</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51">
+        <v>1839.29</v>
+      </c>
+      <c r="E51">
+        <v>753.1</v>
+      </c>
+      <c r="F51">
+        <v>453.78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>25092023</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52">
+        <v>1863.26</v>
+      </c>
+      <c r="E52">
+        <v>738.8</v>
+      </c>
+      <c r="F52">
+        <v>544.34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>2102023</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53">
+        <v>1895.75</v>
+      </c>
+      <c r="E53">
+        <v>738.54</v>
+      </c>
+      <c r="F53">
+        <v>544.33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>9102023</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54">
+        <v>1931.06</v>
+      </c>
+      <c r="E54">
+        <v>742.6799999999999</v>
+      </c>
+      <c r="F54">
+        <v>544.33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>16102023</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55">
+        <v>1966.68</v>
+      </c>
+      <c r="E55">
+        <v>730.05</v>
+      </c>
+      <c r="F55">
+        <v>544.4299999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>23102023</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56">
+        <v>2002.73</v>
+      </c>
+      <c r="E56">
+        <v>722.12</v>
+      </c>
+      <c r="F56">
+        <v>544.4299999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>30102023</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57">
+        <v>2036.91</v>
+      </c>
+      <c r="E57">
+        <v>722.4299999999999</v>
+      </c>
+      <c r="F57">
+        <v>544.89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>6112023</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58">
+        <v>2073.41</v>
+      </c>
+      <c r="E58">
+        <v>724.25</v>
+      </c>
+      <c r="F58">
+        <v>544.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>13112023</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59">
+        <v>2113.31</v>
+      </c>
+      <c r="E59">
+        <v>727.7</v>
+      </c>
+      <c r="F59">
+        <v>544.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>20112023</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" t="s">
+        <v>112</v>
+      </c>
+      <c r="D60">
+        <v>2135.67</v>
+      </c>
+      <c r="E60">
+        <v>718.23</v>
+      </c>
+      <c r="F60">
+        <v>544.1799999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>27112023</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61">
+        <v>2174.07</v>
+      </c>
+      <c r="E61">
+        <v>718.95</v>
+      </c>
+      <c r="F61">
+        <v>544.1900000000001</v>
       </c>
     </row>
   </sheetData>
